--- a/Interfaccia Gara PC/Sistema_Interfaccia Rev7 22_04_2024/10°_International_Modena_Troph2024-02-29_07_23_19.xlsx
+++ b/Interfaccia Gara PC/Sistema_Interfaccia Rev7 22_04_2024/10°_International_Modena_Troph2024-02-29_07_23_19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\Interfaccia Gara PC\Stravolgo l_interfaccia per la fai_\Sistema_Interfaccia x FAI Test Modena\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\Interfaccia Gara PC\Sistema_Interfaccia Rev7 22_04_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC04055-B44C-42A4-A0F8-5EC451656468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF223B8A-217B-40DF-8803-37A6C6BE0D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1524,10 +1524,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E15"/>
     </sheetView>
   </sheetViews>
@@ -1571,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -2178,7 +2177,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -2242,7 +2241,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>153</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>183</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -2733,7 +2732,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>209</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>213</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>217</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>223</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2931,7 +2930,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>229</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>238</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>242</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>247</v>
       </c>
@@ -3091,7 +3090,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -3123,7 +3122,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>256</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>260</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>264</v>
       </c>
@@ -3214,14 +3213,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K54" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="F3D_x000a_F3E"/>
-        <filter val="F3E"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K54" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3230,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B214D061-19B4-447A-A475-7D497E5B76D8}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A59"/>
     </sheetView>
   </sheetViews>
